--- a/excel-files/2024-03-01-2024-03-01-1.xlsx
+++ b/excel-files/2024-03-01-2024-03-01-1.xlsx
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Xarici dillər fakültəsi üzrə təhsil alan tələbə kontingentinin dəyişməsi haqqında</t>
+          <t>Memarlıq və Mühəndislik fakültəsi üzrə təhsil alan tələbə kontingentinin dəyişməsi haqqında</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Tərcümə (İngilis Azərbaycan dilləri)</t>
+          <t>İnformasiya texnologiyaları</t>
         </is>
       </c>
       <c r="B6" s="4" t="n"/>
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="C17" s="7" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D17" s="4" t="n"/>
       <c r="E17" s="4" t="n"/>
@@ -1058,17 +1058,15 @@
       <c r="AB17" s="4" t="n"/>
       <c r="AC17" s="4" t="n"/>
       <c r="AD17" s="7" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="AE17" s="7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AF17" s="7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG17" s="7" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="4" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="n"/>
@@ -1078,7 +1076,7 @@
         </is>
       </c>
       <c r="C18" s="7" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D18" s="4" t="n"/>
       <c r="E18" s="4" t="n"/>
@@ -1107,13 +1105,13 @@
       <c r="AB18" s="4" t="n"/>
       <c r="AC18" s="4" t="n"/>
       <c r="AD18" s="7" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="AE18" s="7" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AF18" s="7" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AG18" s="4" t="n"/>
     </row>
@@ -1164,7 +1162,7 @@
         </is>
       </c>
       <c r="C20" s="7" t="n">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D20" s="4" t="n"/>
       <c r="E20" s="4" t="n"/>
@@ -1193,17 +1191,15 @@
       <c r="AB20" s="4" t="n"/>
       <c r="AC20" s="4" t="n"/>
       <c r="AD20" s="7" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AE20" s="7" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AF20" s="7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG20" s="7" t="n">
-        <v>4</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="AG20" s="4" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
@@ -1217,7 +1213,7 @@
         </is>
       </c>
       <c r="C21" s="7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4" t="n"/>
       <c r="E21" s="4" t="n"/>
@@ -1246,17 +1242,15 @@
       <c r="AB21" s="4" t="n"/>
       <c r="AC21" s="4" t="n"/>
       <c r="AD21" s="7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AE21" s="7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF21" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="AG21" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG21" s="4" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="n"/>
@@ -1265,9 +1259,7 @@
           <t>Ödənişsiz</t>
         </is>
       </c>
-      <c r="C22" s="7" t="n">
-        <v>34</v>
-      </c>
+      <c r="C22" s="4" t="n"/>
       <c r="D22" s="4" t="n"/>
       <c r="E22" s="4" t="n"/>
       <c r="F22" s="4" t="n"/>
@@ -1294,15 +1286,9 @@
       <c r="AA22" s="4" t="n"/>
       <c r="AB22" s="4" t="n"/>
       <c r="AC22" s="4" t="n"/>
-      <c r="AD22" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF22" s="7" t="n">
-        <v>7</v>
-      </c>
+      <c r="AD22" s="4" t="n"/>
+      <c r="AE22" s="4" t="n"/>
+      <c r="AF22" s="4" t="n"/>
       <c r="AG22" s="4" t="n"/>
     </row>
     <row r="23">
@@ -1352,7 +1338,7 @@
         </is>
       </c>
       <c r="C24" s="7" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D24" s="4" t="n"/>
       <c r="E24" s="4" t="n"/>
@@ -1381,17 +1367,15 @@
       <c r="AB24" s="4" t="n"/>
       <c r="AC24" s="4" t="n"/>
       <c r="AD24" s="7" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AE24" s="7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF24" s="7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG24" s="7" t="n">
-        <v>1</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="AG24" s="4" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -1405,7 +1389,7 @@
         </is>
       </c>
       <c r="C25" s="7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D25" s="4" t="n"/>
       <c r="E25" s="4" t="n"/>
@@ -1434,13 +1418,13 @@
       <c r="AB25" s="4" t="n"/>
       <c r="AC25" s="4" t="n"/>
       <c r="AD25" s="7" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE25" s="7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AF25" s="7" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AG25" s="4" t="n"/>
     </row>
@@ -1452,7 +1436,7 @@
         </is>
       </c>
       <c r="C26" s="7" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D26" s="4" t="n"/>
       <c r="E26" s="4" t="n"/>
@@ -1480,15 +1464,9 @@
       <c r="AA26" s="4" t="n"/>
       <c r="AB26" s="4" t="n"/>
       <c r="AC26" s="4" t="n"/>
-      <c r="AD26" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE26" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF26" s="7" t="n">
-        <v>7</v>
-      </c>
+      <c r="AD26" s="4" t="n"/>
+      <c r="AE26" s="4" t="n"/>
+      <c r="AF26" s="4" t="n"/>
       <c r="AG26" s="4" t="n"/>
     </row>
     <row r="27">
@@ -1538,7 +1516,7 @@
         </is>
       </c>
       <c r="C28" s="7" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D28" s="4" t="n"/>
       <c r="E28" s="4" t="n"/>
@@ -1567,13 +1545,13 @@
       <c r="AB28" s="4" t="n"/>
       <c r="AC28" s="4" t="n"/>
       <c r="AD28" s="7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE28" s="7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF28" s="7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG28" s="4" t="n"/>
     </row>
@@ -1589,7 +1567,7 @@
         </is>
       </c>
       <c r="C29" s="7" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D29" s="4" t="n"/>
       <c r="E29" s="4" t="n"/>
@@ -1618,13 +1596,13 @@
       <c r="AB29" s="4" t="n"/>
       <c r="AC29" s="4" t="n"/>
       <c r="AD29" s="7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE29" s="7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF29" s="7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="4" t="n"/>
     </row>
@@ -1636,7 +1614,7 @@
         </is>
       </c>
       <c r="C30" s="7" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D30" s="4" t="n"/>
       <c r="E30" s="4" t="n"/>
@@ -1665,13 +1643,13 @@
       <c r="AB30" s="4" t="n"/>
       <c r="AC30" s="4" t="n"/>
       <c r="AD30" s="7" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AE30" s="7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AF30" s="7" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AG30" s="4" t="n"/>
     </row>
@@ -1682,7 +1660,9 @@
           <t>Xarici</t>
         </is>
       </c>
-      <c r="C31" s="4" t="n"/>
+      <c r="C31" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="D31" s="4" t="n"/>
       <c r="E31" s="4" t="n"/>
       <c r="F31" s="4" t="n"/>
@@ -1722,7 +1702,7 @@
         </is>
       </c>
       <c r="C32" s="7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D32" s="4" t="n"/>
       <c r="E32" s="4" t="n"/>
@@ -1751,10 +1731,10 @@
       <c r="AB32" s="4" t="n"/>
       <c r="AC32" s="4" t="n"/>
       <c r="AD32" s="7" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE32" s="7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AF32" s="7" t="n">
         <v>12</v>
@@ -1773,7 +1753,7 @@
         </is>
       </c>
       <c r="C33" s="7" t="n">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="D33" s="4" t="n"/>
       <c r="E33" s="4" t="n"/>
@@ -1802,17 +1782,15 @@
       <c r="AB33" s="4" t="n"/>
       <c r="AC33" s="4" t="n"/>
       <c r="AD33" s="7" t="n">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AE33" s="7" t="n">
         <v>16</v>
       </c>
       <c r="AF33" s="7" t="n">
-        <v>48</v>
-      </c>
-      <c r="AG33" s="7" t="n">
-        <v>5</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="AG33" s="4" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="n"/>
@@ -1822,7 +1800,7 @@
         </is>
       </c>
       <c r="C34" s="7" t="n">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D34" s="4" t="n"/>
       <c r="E34" s="4" t="n"/>
@@ -1851,13 +1829,13 @@
       <c r="AB34" s="4" t="n"/>
       <c r="AC34" s="4" t="n"/>
       <c r="AD34" s="7" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="AE34" s="7" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="AF34" s="7" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AG34" s="4" t="n"/>
     </row>
@@ -1868,7 +1846,9 @@
           <t>Xarici</t>
         </is>
       </c>
-      <c r="C35" s="4" t="n"/>
+      <c r="C35" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="D35" s="4" t="n"/>
       <c r="E35" s="4" t="n"/>
       <c r="F35" s="4" t="n"/>
@@ -1908,7 +1888,7 @@
         </is>
       </c>
       <c r="C36" s="7" t="n">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="D36" s="4" t="n"/>
       <c r="E36" s="4" t="n"/>
@@ -1937,17 +1917,15 @@
       <c r="AB36" s="4" t="n"/>
       <c r="AC36" s="4" t="n"/>
       <c r="AD36" s="7" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="7" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="AF36" s="7" t="n">
-        <v>69</v>
-      </c>
-      <c r="AG36" s="7" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="AG36" s="4" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="45">
